--- a/biology/Biochimie/Kallicréine/Kallicréine.xlsx
+++ b/biology/Biochimie/Kallicréine/Kallicréine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kallicr%C3%A9ine</t>
+          <t>Kallicréine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La kallicréine (aussi orthographiée Kallikréine) est une famille de protéines ayant un rôle de protéase à sérine clivant le kininogène en bradykinine et kallidine.
 Elle a un rôle important dans l'inflammation.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kallicr%C3%A9ine</t>
+          <t>Kallicréine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quinze kallicréines ont été décrites chez l'être humain. La kallikréine-3 ou antigène prostatique spécifique (PSA) est utilisée en médecine comme marqueur tumoral pour le cancer de la prostate.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kallicr%C3%A9ine</t>
+          <t>Kallicréine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lanadelumab est un anticorps monoclonal ciblant les kallicréines et en cours de test dans la prévention des crises dans l'angio-œdème héréditaire[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lanadelumab est un anticorps monoclonal ciblant les kallicréines et en cours de test dans la prévention des crises dans l'angio-œdème héréditaire.
 </t>
         </is>
       </c>
